--- a/144F20/Topic 2/slope-intercept.xlsx
+++ b/144F20/Topic 2/slope-intercept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\144\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57907628-0EDD-40D9-9E75-21E98DD0171D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="10_ncr:80_{57743E7C-1D0B-4E69-ACA8-2749DA19135A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1B8ACCC-9DB2-456E-A451-6EE0F0723D16}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20796" windowHeight="11424" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Fit" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>x</t>
   </si>
@@ -52,9 +54,6 @@
     <t>Equation</t>
   </si>
   <si>
-    <t>Given points</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -158,9 +157,6 @@
   </si>
   <si>
     <t>Rand22</t>
-  </si>
-  <si>
-    <t>Points On Line</t>
   </si>
   <si>
     <t>a word</t>
@@ -169,13 +165,30 @@
     <t>- Find the slope and intercept of the best fit line, using =slope(Y,X) and =intercept(Y, X)
 - Write theequation of the line.
 - Fill in the predicted values.</t>
+  </si>
+  <si>
+    <t>Predictions</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Format predictions to 2 decimal places.</t>
+  </si>
+  <si>
+    <t>- Insert a scatter plot for the data C6:D11 
+- Add a linear trendline and extended to include -5 and 20.
+- Add the scatter plot of your predictions (see the video)</t>
+  </si>
+  <si>
+    <t>Video for this.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +205,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Bradley Hand ITC"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
   </fonts>
@@ -233,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -493,11 +529,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,20 +603,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -565,6 +614,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -591,25 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -619,26 +687,76 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,1130 +770,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Best</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Straight Line</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Linear Fit'!$A$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Given points</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Linear Fit'!$C$6:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Linear Fit'!$D$6:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>20.03533935546875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.275634765625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.31341552734375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52.3238525390625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.24517822265625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73.32421875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5377-4BAE-B519-B2DAA79223F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="597979512"/>
-        <c:axId val="597984432"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Linear Fit'!$A$13:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Points On Line</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Linear Fit'!$C$14:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Linear Fit'!$D$14:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5377-4BAE-B519-B2DAA79223F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="597979512"/>
-        <c:axId val="597984432"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="597979512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="13"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="597984432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="597984432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="597979512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE501242-FBF0-4BBF-9694-55FE41938635}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D7595F30-64F5-4CCB-9D9D-DD40B16514AE}">
-  <header guid="{D7595F30-64F5-4CCB-9D9D-DD40B16514AE}" dateTime="2020-09-27T17:03:52" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2075,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDA598-8F75-47DB-A1EB-542124AF2F6A}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2088,40 +1082,48 @@
     <col min="9" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="I2" s="15" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="C1" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="I2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.2" thickBot="1">
+      <c r="B3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:14">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2129,236 +1131,232 @@
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="40">
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="24">
         <v>2</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="55">
         <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C6+6+SIGN(Random!B11-Random!B18)*Random!D12*10</f>
         <v>20.03533935546875</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="42">
+      <c r="C7" s="25">
         <v>4</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="56">
         <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C7+6+SIGN(Random!B12-Random!B19)*Random!D13*10</f>
         <v>27.275634765625</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="42">
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="25">
         <v>6</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="56">
         <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C8+6+SIGN(Random!B13-Random!B20)*Random!D14*10</f>
         <v>31.31341552734375</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="42">
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="25">
         <v>8</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="56">
         <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C9+6+SIGN(Random!B14-Random!B21)*Random!D15*10</f>
         <v>52.3238525390625</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
-      <c r="C10" s="42">
+      <c r="G9" s="30"/>
+      <c r="J9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="45"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="C10" s="25">
         <v>10</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="56">
         <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C10+6+SIGN(Random!B15-Random!B22)*Random!D16*10</f>
         <v>48.24517822265625</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
-      <c r="C11" s="44">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1">
+      <c r="C11" s="26">
         <v>12</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="57">
         <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C11+6+SIGN(Random!B16-Random!B23)*Random!D17*10</f>
         <v>73.32421875</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
-      <c r="A13" s="13" t="s">
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1">
+      <c r="A13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="30"/>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="C15" s="20">
-        <v>2</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="C16" s="20">
-        <v>3</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14" s="15">
+        <v>-5</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="C15" s="16">
+        <v>-3</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="20">
-        <v>4</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="C17" s="16">
+        <v>7</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="20">
-        <v>5</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="C18" s="16">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="3:8" ht="15" thickBot="1">
-      <c r="C19" s="20">
-        <v>6</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="C19" s="17">
+        <v>20</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="20">
-        <v>7</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="20">
-        <v>8</v>
-      </c>
-      <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="20">
-        <v>9</v>
-      </c>
-      <c r="D22" s="34"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="20">
-        <v>10</v>
-      </c>
-      <c r="D23" s="34"/>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="20">
-        <v>11</v>
-      </c>
-      <c r="D24" s="34"/>
-    </row>
-    <row r="25" spans="3:8" ht="15" thickBot="1">
-      <c r="C25" s="21">
-        <v>12</v>
-      </c>
-      <c r="D25" s="35"/>
+      <c r="C20" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="3:8" ht="15" thickBot="1">
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PXLCAn5RzylbLCPBGR1w/+573w3wO1eDoEi5xz7vDaq9AAumj0PNIjqqmSnZZIt5faEUVJlxyPQvrxFEhSXUGw==" saltValue="tGYp8QRp7FO8ck0TFJhS1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vOlp1IaFZfjOe9fkBhxVz94LPGgvxgkGgAziuxcRkfJIL9KF8sg/4Ps/vQk0cqfVW42EzmG9/DKQjB12aZcRew==" saltValue="E3WDEgCgMBdqc0iR+Tjs6A==" spinCount="100000" sheet="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
     <customSheetView guid="{1E6EB3EC-58F4-42D5-9462-6EAD6EC3491E}">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G24" sqref="G24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="10">
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="J9:N11"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="F12:H19"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1:E2" r:id="rId2" display="Video for this." xr:uid="{034F62B5-D6DE-4BF0-9A4B-D4FBF4CED3BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2639,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f>CODE(MID('Linear Fit'!E$1,A6,1))</f>
+        <f>CODE(MID('Linear Fit'!F$3,A6,1))</f>
         <v>97</v>
       </c>
       <c r="C6">
@@ -2711,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <f>CODE(MID('Linear Fit'!E$1,A7,1))</f>
+        <f>CODE(MID('Linear Fit'!F$3,A7,1))</f>
         <v>32</v>
       </c>
       <c r="C7">
@@ -2783,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f>CODE(MID('Linear Fit'!E$1,A8,1))</f>
+        <f>CODE(MID('Linear Fit'!F$3,A8,1))</f>
         <v>119</v>
       </c>
       <c r="C8">
@@ -2855,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f>CODE(MID('Linear Fit'!E$1,A9,1))</f>
+        <f>CODE(MID('Linear Fit'!F$3,A9,1))</f>
         <v>111</v>
       </c>
       <c r="C9">
@@ -2927,7 +1925,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <f>CODE(MID('Linear Fit'!E$1,A10,1))</f>
+        <f>CODE(MID('Linear Fit'!F$3,A10,1))</f>
         <v>114</v>
       </c>
       <c r="C10">
@@ -2996,7 +1994,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
@@ -3059,7 +2057,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*F11+F12,F13)</f>
@@ -3134,9 +2132,9 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="18">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
         <v>4180</v>
       </c>
@@ -3209,9 +2207,9 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="18">
+        <v>20</v>
+      </c>
+      <c r="B14" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>15357</v>
       </c>
@@ -3281,9 +2279,9 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="18">
+        <v>21</v>
+      </c>
+      <c r="B15" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>20722</v>
       </c>
@@ -3353,9 +2351,9 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="18">
+        <v>22</v>
+      </c>
+      <c r="B16" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>25411</v>
       </c>
@@ -3425,9 +2423,9 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="18">
+        <v>23</v>
+      </c>
+      <c r="B17" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>24000</v>
       </c>
@@ -3497,9 +2495,9 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="18">
+        <v>24</v>
+      </c>
+      <c r="B18" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>6905</v>
       </c>
@@ -3518,9 +2516,9 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="18">
+        <v>25</v>
+      </c>
+      <c r="B19" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>2622</v>
       </c>
@@ -3539,9 +2537,9 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="18">
+        <v>26</v>
+      </c>
+      <c r="B20" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>28831</v>
       </c>
@@ -3560,9 +2558,9 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="18">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>5612</v>
       </c>
@@ -3581,9 +2579,9 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="18">
+        <v>28</v>
+      </c>
+      <c r="B22" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>28085</v>
       </c>
@@ -3599,13 +2597,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M22" s="18"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="18">
+        <v>29</v>
+      </c>
+      <c r="B23" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>3146</v>
       </c>
@@ -3621,13 +2619,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M23" s="18"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="18">
+        <v>30</v>
+      </c>
+      <c r="B24" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>30651</v>
       </c>
@@ -3643,13 +2641,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="18">
+        <v>31</v>
+      </c>
+      <c r="B25" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>9432</v>
       </c>
@@ -3665,13 +2663,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M25" s="18"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="18">
+        <v>32</v>
+      </c>
+      <c r="B26" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>12337</v>
       </c>
@@ -3687,13 +2685,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M26" s="18"/>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="18">
+        <v>33</v>
+      </c>
+      <c r="B27" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>8982</v>
       </c>
@@ -3709,13 +2707,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M27" s="18"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="18">
+        <v>34</v>
+      </c>
+      <c r="B28" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>21655</v>
       </c>
@@ -3731,13 +2729,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M28" s="18"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="18">
+        <v>35</v>
+      </c>
+      <c r="B29" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>13956</v>
       </c>
@@ -3753,13 +2751,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M29" s="18"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="18">
+        <v>36</v>
+      </c>
+      <c r="B30" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>7789</v>
       </c>
@@ -3775,13 +2773,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M30" s="18"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="18">
+        <v>37</v>
+      </c>
+      <c r="B31" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>23202</v>
       </c>
@@ -3797,13 +2795,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M31" s="18"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="18">
+        <v>38</v>
+      </c>
+      <c r="B32" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>9011</v>
       </c>
@@ -3819,13 +2817,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M32" s="18"/>
+      <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="18">
+        <v>39</v>
+      </c>
+      <c r="B33" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>14064</v>
       </c>
@@ -3841,7 +2839,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M33" s="18"/>
+      <c r="M33" s="14"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 2/slope-intercept.xlsx
+++ b/144F20/Topic 2/slope-intercept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="10_ncr:80_{57743E7C-1D0B-4E69-ACA8-2749DA19135A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1B8ACCC-9DB2-456E-A451-6EE0F0723D16}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="10_ncr:80_{57743E7C-1D0B-4E69-ACA8-2749DA19135A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA71D3C9-C4A7-4773-8157-1F573095F6A2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
+    <workbookView xWindow="1428" yWindow="84" windowWidth="20796" windowHeight="11424" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Fit" sheetId="1" r:id="rId1"/>
@@ -638,6 +638,64 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -649,6 +707,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,73 +753,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1083,29 +1083,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1">
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="I2" s="27" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="I2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="28"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:14" ht="16.2" thickBot="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="58" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="30" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -1138,16 +1138,16 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="24">
         <v>2</v>
       </c>
-      <c r="D6" s="55">
-        <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C6+6+SIGN(Random!B11-Random!B18)*Random!D12*10</f>
-        <v>20.03533935546875</v>
+      <c r="D6" s="27" t="str">
+        <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C6+6+SIGN(Random!B11-Random!B18)*Random!D12*10)</f>
+        <v>Fill F3</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>12</v>
@@ -1162,9 +1162,9 @@
       <c r="C7" s="25">
         <v>4</v>
       </c>
-      <c r="D7" s="56">
-        <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C7+6+SIGN(Random!B12-Random!B19)*Random!D13*10</f>
-        <v>27.275634765625</v>
+      <c r="D7" s="28" t="str">
+        <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C7+6+SIGN(Random!B12-Random!B19)*Random!D13*10)</f>
+        <v>Fill F3</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="3" t="s">
@@ -1183,9 +1183,9 @@
       <c r="C8" s="25">
         <v>6</v>
       </c>
-      <c r="D8" s="56">
-        <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C8+6+SIGN(Random!B13-Random!B20)*Random!D14*10</f>
-        <v>31.31341552734375</v>
+      <c r="D8" s="28" t="str">
+        <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C8+6+SIGN(Random!B13-Random!B20)*Random!D14*10)</f>
+        <v>Fill F3</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="4" t="s">
@@ -1198,141 +1198,141 @@
       <c r="C9" s="25">
         <v>8</v>
       </c>
-      <c r="D9" s="56">
-        <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C9+6+SIGN(Random!B14-Random!B21)*Random!D15*10</f>
-        <v>52.3238525390625</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="D9" s="28" t="str">
+        <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C9+6+SIGN(Random!B14-Random!B21)*Random!D15*10)</f>
+        <v>Fill F3</v>
+      </c>
+      <c r="F9" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="J9" s="44" t="s">
+      <c r="G9" s="52"/>
+      <c r="J9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="45"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="C10" s="25">
         <v>10</v>
       </c>
-      <c r="D10" s="56">
-        <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C10+6+SIGN(Random!B15-Random!B22)*Random!D16*10</f>
-        <v>48.24517822265625</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="47"/>
+      <c r="D10" s="28" t="str">
+        <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C10+6+SIGN(Random!B15-Random!B22)*Random!D16*10)</f>
+        <v>Fill F3</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="C11" s="26">
         <v>12</v>
       </c>
-      <c r="D11" s="57">
-        <f ca="1">SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C11+6+SIGN(Random!B16-Random!B23)*Random!D17*10</f>
-        <v>73.32421875</v>
-      </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="D11" s="29" t="str">
+        <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C11+6+SIGN(Random!B16-Random!B23)*Random!D17*10)</f>
+        <v>Fill F3</v>
+      </c>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:14">
       <c r="C14" s="15">
         <v>-5</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:14">
       <c r="C15" s="16">
         <v>-3</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:14">
       <c r="C16" s="16">
         <v>0</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="16">
         <v>7</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="16">
         <v>13</v>
       </c>
       <c r="D18" s="20"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="3:8" ht="15" thickBot="1">
       <c r="C19" s="17">
         <v>20</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="32"/>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="3:8" ht="15" thickBot="1">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vOlp1IaFZfjOe9fkBhxVz94LPGgvxgkGgAziuxcRkfJIL9KF8sg/4Ps/vQk0cqfVW42EzmG9/DKQjB12aZcRew==" saltValue="E3WDEgCgMBdqc0iR+Tjs6A==" spinCount="100000" sheet="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x/e4wx20oOhpxHXUGRxm/2nXD78TaEFGhgfIIgESR020eYKYO/fOCBnv6mIuTWIQq/HGtWmxNBjGRYvnFzqAgQ==" saltValue="qdyx3dL+xKXa6Xw6bRmlvg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
     <customSheetView guid="{1E6EB3EC-58F4-42D5-9462-6EAD6EC3491E}">
       <selection activeCell="G24" sqref="G24"/>

--- a/144F20/Topic 2/slope-intercept.xlsx
+++ b/144F20/Topic 2/slope-intercept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="10_ncr:80_{57743E7C-1D0B-4E69-ACA8-2749DA19135A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA71D3C9-C4A7-4773-8157-1F573095F6A2}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="10_ncr:80_{57743E7C-1D0B-4E69-ACA8-2749DA19135A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3EBC588-9FCB-4FB1-BFB7-BF123774F600}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="84" windowWidth="20796" windowHeight="11424" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="20796" windowHeight="11424" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Fit" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>x</t>
   </si>
@@ -182,13 +182,16 @@
   </si>
   <si>
     <t>Video for this.</t>
+  </si>
+  <si>
+    <t>See video above.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +230,12 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
@@ -560,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,6 +762,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDA598-8F75-47DB-A1EB-542124AF2F6A}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1082,14 +1097,14 @@
     <col min="9" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="C1" s="44" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -1098,7 +1113,7 @@
       </c>
       <c r="J2" s="47"/>
     </row>
-    <row r="3" spans="1:14" ht="16.2" thickBot="1">
+    <row r="3" spans="1:17" ht="16.2" thickBot="1">
       <c r="B3" s="49" t="s">
         <v>16</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="48" t="s">
         <v>43</v>
       </c>
@@ -1156,7 +1171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="25">
@@ -1177,7 +1192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:17" ht="15" thickBot="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="25">
@@ -1192,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="25">
@@ -1213,8 +1228,13 @@
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
       <c r="N9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="O9" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1">
       <c r="C10" s="25">
         <v>10</v>
       </c>
@@ -1230,7 +1250,7 @@
       <c r="M10" s="39"/>
       <c r="N10" s="40"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:17" ht="15" thickBot="1">
       <c r="C11" s="26">
         <v>12</v>
       </c>
@@ -1244,14 +1264,14 @@
       <c r="M11" s="42"/>
       <c r="N11" s="43"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17">
       <c r="F12" s="53" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="55"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:17" ht="15" thickBot="1">
       <c r="A13" s="52" t="s">
         <v>42</v>
       </c>
@@ -1266,7 +1286,7 @@
       <c r="G13" s="57"/>
       <c r="H13" s="58"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="C14" s="15">
         <v>-5</v>
       </c>
@@ -1275,7 +1295,7 @@
       <c r="G14" s="57"/>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="C15" s="16">
         <v>-3</v>
       </c>
@@ -1284,7 +1304,7 @@
       <c r="G15" s="57"/>
       <c r="H15" s="58"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="C16" s="16">
         <v>0</v>
       </c>
@@ -1332,7 +1352,7 @@
       <c r="D21" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x/e4wx20oOhpxHXUGRxm/2nXD78TaEFGhgfIIgESR020eYKYO/fOCBnv6mIuTWIQq/HGtWmxNBjGRYvnFzqAgQ==" saltValue="qdyx3dL+xKXa6Xw6bRmlvg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0"/>
+  <sheetProtection formatCells="0"/>
   <customSheetViews>
     <customSheetView guid="{1E6EB3EC-58F4-42D5-9462-6EAD6EC3491E}">
       <selection activeCell="G24" sqref="G24"/>
@@ -1340,7 +1360,8 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="J9:N11"/>
     <mergeCell ref="C1:E2"/>

--- a/144F20/Topic 2/slope-intercept.xlsx
+++ b/144F20/Topic 2/slope-intercept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="10_ncr:80_{57743E7C-1D0B-4E69-ACA8-2749DA19135A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3EBC588-9FCB-4FB1-BFB7-BF123774F600}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="10_ncr:80_{57743E7C-1D0B-4E69-ACA8-2749DA19135A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2BF989D-5849-4DAD-AEA9-D691A81325F5}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20796" windowHeight="11424" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
+    <workbookView xWindow="1635" yWindow="1125" windowWidth="25995" windowHeight="14280" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Fit" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <t>Video for this.</t>
   </si>
   <si>
-    <t>See video above.</t>
+    <t xml:space="preserve">- Use your graph to approximate Y at X = 18:   Y = </t>
   </si>
 </sst>
 </file>
@@ -227,15 +227,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
@@ -569,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,6 +661,9 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,12 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -763,11 +761,26 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -785,6 +798,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5CEACF-71AE-4AA4-9E21-BE8740C364A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="19050"/>
+          <a:ext cx="352425" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1084,42 +1152,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDA598-8F75-47DB-A1EB-542124AF2F6A}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="C1" s="44" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="C1" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="I2" s="46" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="I2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.2" thickBot="1">
-      <c r="B3" s="49" t="s">
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1">
+      <c r="B3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="30" t="s">
         <v>40</v>
       </c>
@@ -1138,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,11 +1221,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A6" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="24">
         <v>2</v>
       </c>
@@ -1171,7 +1240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="25">
@@ -1192,7 +1261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="25">
@@ -1217,24 +1286,22 @@
         <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C9+6+SIGN(Random!B14-Random!B21)*Random!D15*10)</f>
         <v>Fill F3</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="J9" s="35" t="s">
+      <c r="G9" s="51"/>
+      <c r="J9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1">
       <c r="C10" s="25">
         <v>10</v>
       </c>
@@ -1242,15 +1309,15 @@
         <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C10+6+SIGN(Random!B15-Random!B22)*Random!D16*10)</f>
         <v>Fill F3</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="40"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="C11" s="26">
         <v>12</v>
       </c>
@@ -1258,98 +1325,111 @@
         <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C11+6+SIGN(Random!B16-Random!B23)*Random!D17*10)</f>
         <v>Fill F3</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="F12" s="53" t="s">
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+      <c r="F12" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1">
-      <c r="A13" s="52" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A13" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="J13" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" spans="1:17">
       <c r="C14" s="15">
         <v>-5</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:17">
       <c r="C15" s="16">
         <v>-3</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:17">
       <c r="C16" s="16">
         <v>0</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-    </row>
-    <row r="17" spans="3:8">
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
+    </row>
+    <row r="17" spans="3:13">
       <c r="C17" s="16">
         <v>7</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-    </row>
-    <row r="18" spans="3:8">
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+    </row>
+    <row r="18" spans="3:13">
       <c r="C18" s="16">
         <v>13</v>
       </c>
       <c r="D18" s="20"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-    </row>
-    <row r="19" spans="3:8" ht="15" thickBot="1">
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="57"/>
+    </row>
+    <row r="19" spans="3:13" ht="15.75" thickBot="1">
       <c r="C19" s="17">
         <v>20</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="31" t="s">
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="33"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="3:8" ht="15" thickBot="1">
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
+    <row r="21" spans="3:13" ht="15.75" thickBot="1">
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="M24" s="31"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
@@ -1360,24 +1440,26 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="11">
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="J9:N11"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="I2:J2"/>
+  <mergeCells count="12">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="F12:H19"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="J9:N11"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="O13:Q13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1:E2" r:id="rId2" display="Video for this." xr:uid="{034F62B5-D6DE-4BF0-9A4B-D4FBF4CED3BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1389,7 +1471,7 @@
       <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="H1">

--- a/144F20/Topic 2/slope-intercept.xlsx
+++ b/144F20/Topic 2/slope-intercept.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="10_ncr:80_{57743E7C-1D0B-4E69-ACA8-2749DA19135A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2BF989D-5849-4DAD-AEA9-D691A81325F5}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="10_ncr:80_{57743E7C-1D0B-4E69-ACA8-2749DA19135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC4CDCC-C220-4CCC-A7AC-41E521F46DF9}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1125" windowWidth="25995" windowHeight="14280" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
+    <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{DA857894-CCDD-4590-8F7E-A65A6A8D0808}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Fit" sheetId="1" r:id="rId1"/>
-    <sheet name="Random" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Random" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>x</t>
   </si>
@@ -185,13 +186,16 @@
   </si>
   <si>
     <t xml:space="preserve">- Use your graph to approximate Y at X = 18:   Y = </t>
+  </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +243,14 @@
       <color theme="10"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -570,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,6 +676,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,6 +767,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,55 +782,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,20 +791,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1167,28 +1182,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="I2" s="45" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="46"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="30" t="s">
         <v>40</v>
       </c>
@@ -1222,10 +1237,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="24">
         <v>2</v>
       </c>
@@ -1286,20 +1301,20 @@
         <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C9+6+SIGN(Random!B14-Random!B21)*Random!D15*10)</f>
         <v>Fill F3</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="J9" s="36" t="s">
+      <c r="G9" s="39"/>
+      <c r="J9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
       <c r="C10" s="25">
@@ -1309,13 +1324,13 @@
         <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C10+6+SIGN(Random!B15-Random!B22)*Random!D16*10)</f>
         <v>Fill F3</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="C11" s="26">
@@ -1325,108 +1340,108 @@
         <f>IF(F$3="a word","Fill F3",SIGN(Random!B$20-Random!B$21)*5*'Linear Fit'!C11+6+SIGN(Random!B16-Random!B23)*Random!D17*10)</f>
         <v>Fill F3</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="J13" s="66" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="J13" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="1:17">
       <c r="C14" s="15">
         <v>-5</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:17">
       <c r="C15" s="16">
         <v>-3</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:17">
       <c r="C16" s="16">
         <v>0</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="3:13">
       <c r="C17" s="16">
         <v>7</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="3:13">
       <c r="C18" s="16">
         <v>13</v>
       </c>
       <c r="D18" s="20"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="3:13" ht="15.75" thickBot="1">
       <c r="C19" s="17">
         <v>20</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="3:13">
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="52"/>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="24" spans="3:13">
       <c r="M24" s="31"/>
@@ -1441,18 +1456,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="J9:N11"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J13:M13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="F12:H19"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="J9:N11"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="O13:Q13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1:E2" r:id="rId2" display="Video for this." xr:uid="{034F62B5-D6DE-4BF0-9A4B-D4FBF4CED3BC}"/>
@@ -1464,6 +1479,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6006A5B-4015-4513-BD86-66A981B08642}">
+  <dimension ref="C5:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:8">
+      <c r="C5" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA233362-47A8-4EAC-A04C-EF1DCF03C8B4}">
   <dimension ref="A1:W33"/>
   <sheetViews>
